--- a/SchedulingData/static3/pso/scheduling1_1.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_1.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.16</v>
+        <v>25.392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>134.6</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>20.82</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>25.24</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>132.84</v>
       </c>
       <c r="E5" t="n">
-        <v>26.4</v>
+        <v>21.496</v>
       </c>
     </row>
     <row r="6">
@@ -542,41 +542,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>47.5</v>
+        <v>44.46</v>
       </c>
       <c r="E6" t="n">
-        <v>27.44</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>70.2</v>
       </c>
       <c r="E7" t="n">
-        <v>24.9</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,336 +584,336 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>107.68</v>
+        <v>70.88</v>
       </c>
       <c r="E8" t="n">
-        <v>22.552</v>
+        <v>25.112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>44.46</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>128.36</v>
       </c>
       <c r="E9" t="n">
-        <v>24.68</v>
+        <v>21.464</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>70.88</v>
       </c>
       <c r="D10" t="n">
-        <v>141.64</v>
+        <v>107.78</v>
       </c>
       <c r="E10" t="n">
-        <v>21.116</v>
+        <v>22.552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>70.2</v>
       </c>
       <c r="D11" t="n">
-        <v>107.14</v>
+        <v>124.8</v>
       </c>
       <c r="E11" t="n">
-        <v>23.096</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>63</v>
+        <v>132.84</v>
       </c>
       <c r="D12" t="n">
-        <v>133.5</v>
+        <v>183.14</v>
       </c>
       <c r="E12" t="n">
-        <v>19.96</v>
+        <v>18.096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>107.14</v>
+        <v>128.36</v>
       </c>
       <c r="D13" t="n">
-        <v>171.24</v>
+        <v>172.2</v>
       </c>
       <c r="E13" t="n">
-        <v>17.816</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>134.6</v>
+        <v>107.78</v>
       </c>
       <c r="D14" t="n">
-        <v>194.9</v>
+        <v>187.26</v>
       </c>
       <c r="E14" t="n">
-        <v>16.9</v>
+        <v>18.184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107.68</v>
+        <v>124.8</v>
       </c>
       <c r="D15" t="n">
-        <v>188.24</v>
+        <v>198.6</v>
       </c>
       <c r="E15" t="n">
-        <v>19.076</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>183.14</v>
       </c>
       <c r="D16" t="n">
-        <v>151.28</v>
+        <v>247.18</v>
       </c>
       <c r="E16" t="n">
-        <v>20.632</v>
+        <v>14.792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>141.64</v>
+        <v>198.6</v>
       </c>
       <c r="D17" t="n">
-        <v>188.56</v>
+        <v>263.48</v>
       </c>
       <c r="E17" t="n">
-        <v>18.564</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>151.28</v>
+        <v>172.2</v>
       </c>
       <c r="D18" t="n">
-        <v>201.36</v>
+        <v>213.92</v>
       </c>
       <c r="E18" t="n">
-        <v>16.264</v>
+        <v>16.668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>201.36</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>266.64</v>
+        <v>133.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12.876</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>188.24</v>
+        <v>187.26</v>
       </c>
       <c r="D20" t="n">
-        <v>263.22</v>
+        <v>259.46</v>
       </c>
       <c r="E20" t="n">
-        <v>14.708</v>
+        <v>15.544</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>171.24</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>218.74</v>
+        <v>132.96</v>
       </c>
       <c r="E21" t="n">
-        <v>15.176</v>
+        <v>22.004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>194.9</v>
+        <v>133.1</v>
       </c>
       <c r="D22" t="n">
-        <v>253.64</v>
+        <v>207.4</v>
       </c>
       <c r="E22" t="n">
-        <v>14.656</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>133.5</v>
+        <v>213.92</v>
       </c>
       <c r="D23" t="n">
-        <v>181.64</v>
+        <v>295.72</v>
       </c>
       <c r="E23" t="n">
-        <v>17.256</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>218.74</v>
+        <v>132.96</v>
       </c>
       <c r="D24" t="n">
-        <v>262.7</v>
+        <v>208.92</v>
       </c>
       <c r="E24" t="n">
-        <v>11.92</v>
+        <v>18.528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>181.64</v>
+        <v>208.92</v>
       </c>
       <c r="D25" t="n">
-        <v>271.34</v>
+        <v>291.76</v>
       </c>
       <c r="E25" t="n">
-        <v>13.856</v>
+        <v>15.824</v>
       </c>
     </row>
   </sheetData>
